--- a/purple_orange_green/Condition_File_purple_orange_green.xlsx
+++ b/purple_orange_green/Condition_File_purple_orange_green.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/purple_orange_green/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1DA016-D32A-9A47-8096-BE47ED05C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEE7AD-FD3B-D241-BC26-ED7886DFBACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{D231CC98-C48C-6345-A0BB-82D169DC4EE2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{D231CC98-C48C-6345-A0BB-82D169DC4EE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$301</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1496">
   <si>
     <t>Jar1</t>
   </si>
@@ -1262,9 +1265,6 @@
     <t>['purple', 'darkorange', 'darkorange', 'darkorange', 'darkorange', 'purple', 'darkorange', 'green', 'green']</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_27points26.jpg</t>
-  </si>
-  <si>
     <t>['purple', 'darkorange', 'darkorange', 'purple', 'darkorange', 'green', 'green', 'purple', 'darkorange']</t>
   </si>
   <si>
@@ -1361,9 +1361,6 @@
     <t>./Stimuli/marblejar_26points21.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_26points22.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/marblejar_26points24.jpg</t>
   </si>
   <si>
@@ -1478,9 +1475,6 @@
     <t>./Stimuli/marblejar_25points27.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_25points28.jpg</t>
-  </si>
-  <si>
     <t>['purple', 'darkorange', 'purple', 'darkorange', 'darkorange', 'darkorange', 'purple', 'green', 'purple']</t>
   </si>
   <si>
@@ -1571,9 +1565,6 @@
     <t>['purple', 'purple', 'darkorange', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green']</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_24points21.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/marblejar_24points22.jpg</t>
   </si>
   <si>
@@ -1685,15 +1676,9 @@
     <t>./Stimuli/marblejar_23points23.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_23points24.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/marblejar_23points27.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_23points28.jpg</t>
-  </si>
-  <si>
     <t>['darkorange', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'purple']</t>
   </si>
   <si>
@@ -1802,9 +1787,6 @@
     <t>./Stimuli/marblejar_30points13.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_30points14.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/marblejar_right_0.jpg</t>
   </si>
   <si>
@@ -2660,9 +2642,6 @@
     <t>./Stimuli/reg_trials/marblejar3_right_different_73.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/reg_trials/marblejar3_right_different_70.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/marblejar3_right_different_81.jpg</t>
   </si>
   <si>
@@ -2792,18 +2771,12 @@
     <t>['green', 'purple', 'purple', 'purple', 'green', 'purple', 'green', 'darkorange', 'green']</t>
   </si>
   <si>
-    <t>['purple', 'darkorange', 'purple', 'darkorange', 'darkorange', 'darkorange', 'green', 'darkorange', 'green']</t>
-  </si>
-  <si>
     <t>['darkorange', 'purple', 'green', 'darkorange', 'green', 'purple', 'purple', 'purple', 'green']</t>
   </si>
   <si>
     <t>['darkorange', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green', 'purple', 'green']</t>
   </si>
   <si>
-    <t>['green', 'darkorange', 'purple', 'purple', 'darkorange', 'darkorange', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
     <t>./Stimuli/marblejar_26points23.jpg</t>
   </si>
   <si>
@@ -2846,12 +2819,6 @@
     <t>['purple', 'green', 'purple', 'green', 'purple', 'darkorange', 'purple', 'purple', 'green']</t>
   </si>
   <si>
-    <t>['darkorange', 'purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'darkorange', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
     <t>['darkorange', 'purple', 'purple', 'purple', 'darkorange', 'darkorange', 'purple', 'darkorange', 'green']</t>
   </si>
   <si>
@@ -2873,27 +2840,15 @@
     <t>['darkorange', 'darkorange', 'green', 'green', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
   </si>
   <si>
-    <t>./Stimuli/marblejar_23points20.jpg</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'darkorange', 'purple', 'green', 'purple', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
     <t>['purple', 'purple', 'darkorange', 'darkorange', 'darkorange', 'darkorange', 'darkorange', 'purple', 'purple']</t>
   </si>
   <si>
     <t>['green', 'purple', 'darkorange', 'purple', 'purple', 'green', 'purple', 'purple', 'purple']</t>
   </si>
   <si>
-    <t>['green', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
     <t>['purple', 'darkorange', 'darkorange', 'green', 'purple', 'purple', 'darkorange', 'purple', 'purple']</t>
   </si>
   <si>
-    <t>['purple', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'darkorange']</t>
-  </si>
-  <si>
     <t>['darkorange', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green']</t>
   </si>
   <si>
@@ -2912,9 +2867,6 @@
     <t>['green', 'darkorange', 'darkorange', 'purple', 'purple', 'green', 'green', 'green', 'green']</t>
   </si>
   <si>
-    <t>['darkorange', 'green', 'green', 'darkorange', 'darkorange', 'darkorange', 'green', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
     <t>green_value</t>
   </si>
   <si>
@@ -4244,9 +4196,6 @@
     <t>['green', 'darkorange', 'purple', 'darkorange', 'darkorange', 'purple', 'darkorange', 'darkorange', 'purple']</t>
   </si>
   <si>
-    <t>['darkorange', 'darkorange', 'darkorange', 'green', 'darkorange', 'green', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
     <t>['purple', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'green', 'purple']</t>
   </si>
   <si>
@@ -4557,6 +4506,27 @@
   </si>
   <si>
     <t>['purple', 'purple', 'green', 'darkorange', 'darkorange', 'darkorange', 'darkorange', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/redo_marblejar_0.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/redo_marblejar_1.jpg</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'purple', 'purple', 'darkorange', 'green', 'darkorange', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/redo_marblejar_2.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/redo_marblejar_3.jpg</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/redo_marblejar_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -4620,7 +4590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4636,12 +4606,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4958,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F3E364-B1D0-3545-807D-DE087F721DC1}">
   <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5006,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -5018,13 +4982,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="120" x14ac:dyDescent="0.25">
@@ -5165,7 +5129,7 @@
         <v>336</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>319</v>
@@ -5218,7 +5182,7 @@
         <v>337</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>319</v>
@@ -5280,7 +5244,7 @@
         <v>318</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6">
         <v>4</v>
@@ -5377,7 +5341,7 @@
         <v>368</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>319</v>
@@ -5430,7 +5394,7 @@
         <v>369</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>319</v>
@@ -5483,7 +5447,7 @@
         <v>370</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>319</v>
@@ -5642,7 +5606,7 @@
         <v>371</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>319</v>
@@ -5695,7 +5659,7 @@
         <v>372</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>319</v>
@@ -5748,7 +5712,7 @@
         <v>373</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>319</v>
@@ -6013,7 +5977,7 @@
         <v>404</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>319</v>
@@ -6066,7 +6030,7 @@
         <v>405</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>319</v>
@@ -6169,16 +6133,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>918</v>
+        <v>380</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>17</v>
@@ -6357,13 +6321,13 @@
         <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -6381,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>319</v>
@@ -6410,13 +6374,13 @@
         <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
@@ -6434,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>319</v>
@@ -6463,13 +6427,13 @@
         <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
@@ -6487,16 +6451,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>921</v>
+        <v>423</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>17</v>
@@ -6516,13 +6480,13 @@
         <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
@@ -6540,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>319</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>15</v>
@@ -6569,13 +6533,13 @@
         <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
@@ -6593,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>319</v>
@@ -6622,13 +6586,13 @@
         <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
@@ -6646,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>319</v>
@@ -6675,13 +6639,13 @@
         <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>21</v>
@@ -6699,10 +6663,10 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>319</v>
@@ -6728,13 +6692,13 @@
         <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>14</v>
@@ -6752,10 +6716,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>317</v>
@@ -6781,13 +6745,13 @@
         <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -6805,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>319</v>
@@ -6834,13 +6798,13 @@
         <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>14</v>
@@ -6858,10 +6822,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>319</v>
@@ -6884,16 +6848,16 @@
     </row>
     <row r="37" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>14</v>
@@ -6914,7 +6878,7 @@
         <v>52</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>317</v>
@@ -6937,16 +6901,16 @@
     </row>
     <row r="38" spans="1:17" ht="140" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>21</v>
@@ -6964,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>319</v>
@@ -6990,16 +6954,16 @@
     </row>
     <row r="39" spans="1:17" ht="160" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>21</v>
@@ -7017,10 +6981,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>319</v>
@@ -7043,16 +7007,16 @@
     </row>
     <row r="40" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -7070,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>317</v>
@@ -7096,16 +7060,16 @@
     </row>
     <row r="41" spans="1:17" ht="140" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>21</v>
@@ -7123,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>319</v>
@@ -7149,16 +7113,16 @@
     </row>
     <row r="42" spans="1:17" ht="160" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>14</v>
@@ -7179,7 +7143,7 @@
         <v>57</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>317</v>
@@ -7202,16 +7166,16 @@
     </row>
     <row r="43" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>14</v>
@@ -7229,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>319</v>
@@ -7255,16 +7219,16 @@
     </row>
     <row r="44" spans="1:17" ht="160" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>14</v>
@@ -7282,10 +7246,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>319</v>
@@ -7308,16 +7272,16 @@
     </row>
     <row r="45" spans="1:17" ht="140" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>14</v>
@@ -7335,16 +7299,16 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>936</v>
+        <v>472</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>17</v>
@@ -7361,16 +7325,16 @@
     </row>
     <row r="46" spans="1:17" ht="160" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>21</v>
@@ -7388,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>317</v>
@@ -7417,13 +7381,13 @@
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>21</v>
@@ -7444,7 +7408,7 @@
         <v>62</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>317</v>
@@ -7470,13 +7434,13 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>21</v>
@@ -7494,16 +7458,16 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>511</v>
+        <v>63</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>937</v>
+        <v>479</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>15</v>
@@ -7523,13 +7487,13 @@
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>21</v>
@@ -7547,10 +7511,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>319</v>
@@ -7576,13 +7540,13 @@
         <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>14</v>
@@ -7600,10 +7564,10 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>319</v>
@@ -7629,13 +7593,13 @@
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>14</v>
@@ -7653,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>319</v>
@@ -7682,13 +7646,13 @@
         <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>14</v>
@@ -7706,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>317</v>
@@ -7735,13 +7699,13 @@
         <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>14</v>
@@ -7759,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>317</v>
@@ -7788,13 +7752,13 @@
         <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
@@ -7812,10 +7776,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>319</v>
@@ -7841,13 +7805,13 @@
         <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>21</v>
@@ -7865,10 +7829,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>319</v>
@@ -7894,13 +7858,13 @@
         <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>21</v>
@@ -7918,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>319</v>
@@ -7947,13 +7911,13 @@
         <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>21</v>
@@ -7971,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>945</v>
+        <v>72</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>946</v>
+        <v>513</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>317</v>
@@ -8000,13 +7964,13 @@
         <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
@@ -8024,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>317</v>
@@ -8053,13 +8017,13 @@
         <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>14</v>
@@ -8077,10 +8041,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>319</v>
@@ -8106,13 +8070,13 @@
         <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>14</v>
@@ -8130,10 +8094,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>319</v>
@@ -8159,13 +8123,13 @@
         <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
@@ -8183,16 +8147,16 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>949</v>
+        <v>532</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>17</v>
@@ -8212,13 +8176,13 @@
         <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>21</v>
@@ -8239,7 +8203,7 @@
         <v>77</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>317</v>
@@ -8265,13 +8229,13 @@
         <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>21</v>
@@ -8292,7 +8256,7 @@
         <v>78</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>317</v>
@@ -8318,13 +8282,13 @@
         <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>21</v>
@@ -8342,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>319</v>
@@ -8371,13 +8335,13 @@
         <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>21</v>
@@ -8395,16 +8359,16 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>551</v>
+        <v>80</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>951</v>
+        <v>521</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>17</v>
@@ -8424,13 +8388,13 @@
         <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>14</v>
@@ -8448,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>317</v>
@@ -8477,13 +8441,13 @@
         <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>14</v>
@@ -8501,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>317</v>
@@ -8530,13 +8494,13 @@
         <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>14</v>
@@ -8554,10 +8518,10 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>319</v>
@@ -8583,13 +8547,13 @@
         <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>14</v>
@@ -8607,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>319</v>
@@ -8636,13 +8600,13 @@
         <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
@@ -8660,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>319</v>
@@ -8689,13 +8653,13 @@
         <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>21</v>
@@ -8716,7 +8680,7 @@
         <v>86</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>317</v>
@@ -8739,16 +8703,16 @@
     </row>
     <row r="72" spans="1:17" ht="140" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>21</v>
@@ -8766,10 +8730,10 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>317</v>
@@ -8792,16 +8756,16 @@
     </row>
     <row r="73" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
@@ -8819,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>319</v>
@@ -8845,16 +8809,16 @@
     </row>
     <row r="74" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>14</v>
@@ -8872,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>319</v>
@@ -8898,16 +8862,16 @@
     </row>
     <row r="75" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>14</v>
@@ -8925,10 +8889,10 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>319</v>
@@ -8951,16 +8915,16 @@
     </row>
     <row r="76" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>14</v>
@@ -8978,16 +8942,16 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>588</v>
+        <v>91</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>958</v>
+        <v>578</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>15</v>
@@ -9007,13 +8971,13 @@
         <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>14</v>
@@ -9031,10 +8995,10 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>317</v>
@@ -9060,13 +9024,13 @@
         <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>14</v>
@@ -9084,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1366</v>
+        <v>1349</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>319</v>
@@ -9113,13 +9077,13 @@
         <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>14</v>
@@ -9137,10 +9101,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>1367</v>
+        <v>1350</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>319</v>
@@ -9166,13 +9130,13 @@
         <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>14</v>
@@ -9190,16 +9154,16 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>592</v>
+        <v>1489</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>1002</v>
+        <v>1151</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>17</v>
@@ -9219,13 +9183,13 @@
         <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>14</v>
@@ -9243,10 +9207,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>1368</v>
+        <v>1351</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>319</v>
@@ -9272,13 +9236,13 @@
         <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>14</v>
@@ -9296,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>319</v>
@@ -9325,13 +9289,13 @@
         <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>14</v>
@@ -9349,10 +9313,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>1372</v>
+        <v>1355</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>319</v>
@@ -9378,13 +9342,13 @@
         <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>14</v>
@@ -9402,10 +9366,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>319</v>
@@ -9431,13 +9395,13 @@
         <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
@@ -9455,15 +9419,15 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L85" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M85" s="7" t="s">
+      <c r="M85" s="2" t="s">
         <v>318</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -9484,13 +9448,13 @@
         <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>14</v>
@@ -9508,15 +9472,15 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="L86" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="L86" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M86" s="7" t="s">
+      <c r="M86" s="2" t="s">
         <v>318</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -9537,13 +9501,13 @@
         <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>14</v>
@@ -9561,10 +9525,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>319</v>
@@ -9590,13 +9554,13 @@
         <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
@@ -9614,16 +9578,16 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>602</v>
+        <v>1490</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>318</v>
+        <v>1491</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>17</v>
@@ -9643,13 +9607,13 @@
         <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>14</v>
@@ -9667,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>319</v>
@@ -9696,13 +9660,13 @@
         <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>14</v>
@@ -9720,10 +9684,10 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1377</v>
+        <v>1360</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>319</v>
@@ -9749,13 +9713,13 @@
         <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>14</v>
@@ -9773,15 +9737,15 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L91" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M91" s="7" t="s">
+      <c r="M91" s="2" t="s">
         <v>318</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -9802,13 +9766,13 @@
         <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>14</v>
@@ -9826,10 +9790,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>319</v>
@@ -9855,13 +9819,13 @@
         <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>14</v>
@@ -9879,10 +9843,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>319</v>
@@ -9908,13 +9872,13 @@
         <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>14</v>
@@ -9932,10 +9896,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>1382</v>
+        <v>1365</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>319</v>
@@ -9961,13 +9925,13 @@
         <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>14</v>
@@ -9985,15 +9949,15 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L95" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="L95" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M95" s="8" t="s">
+      <c r="M95" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -10014,13 +9978,13 @@
         <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>14</v>
@@ -10038,15 +10002,15 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L96" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M96" s="8" t="s">
+      <c r="M96" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -10067,13 +10031,13 @@
         <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>14</v>
@@ -10091,10 +10055,10 @@
         <v>0</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>319</v>
@@ -10120,13 +10084,13 @@
         <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>14</v>
@@ -10144,15 +10108,15 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L98" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L98" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M98" s="8" t="s">
+      <c r="M98" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -10173,13 +10137,13 @@
         <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>14</v>
@@ -10197,15 +10161,15 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L99" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L99" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M99" s="8" t="s">
+      <c r="M99" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -10226,13 +10190,13 @@
         <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>14</v>
@@ -10250,10 +10214,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>319</v>
@@ -10279,13 +10243,13 @@
         <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>14</v>
@@ -10303,15 +10267,15 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L101" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L101" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M101" s="8" t="s">
+      <c r="M101" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -10332,13 +10296,13 @@
         <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>14</v>
@@ -10356,15 +10320,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L102" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L102" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M102" s="8" t="s">
+      <c r="M102" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -10385,13 +10349,13 @@
         <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>14</v>
@@ -10409,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>1384</v>
+        <v>1367</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>319</v>
@@ -10438,13 +10402,13 @@
         <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>14</v>
@@ -10462,10 +10426,10 @@
         <v>0</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>1385</v>
+        <v>1368</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>319</v>
@@ -10491,13 +10455,13 @@
         <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>14</v>
@@ -10515,10 +10479,10 @@
         <v>0</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>1386</v>
+        <v>1369</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>319</v>
@@ -10544,13 +10508,13 @@
         <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>14</v>
@@ -10568,15 +10532,15 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L106" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L106" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M106" s="8" t="s">
+      <c r="M106" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -10597,13 +10561,13 @@
         <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>14</v>
@@ -10621,15 +10585,15 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="L107" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="L107" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M107" s="8" t="s">
+      <c r="M107" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -10650,13 +10614,13 @@
         <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>14</v>
@@ -10674,15 +10638,15 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L108" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L108" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M108" s="8" t="s">
+      <c r="M108" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -10703,13 +10667,13 @@
         <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>14</v>
@@ -10727,15 +10691,15 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L109" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L109" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M109" s="8" t="s">
+      <c r="M109" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -10756,13 +10720,13 @@
         <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>14</v>
@@ -10780,15 +10744,15 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L110" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L110" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M110" s="8" t="s">
+      <c r="M110" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -10809,13 +10773,13 @@
         <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>14</v>
@@ -10833,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>1387</v>
+        <v>1370</v>
       </c>
       <c r="L111" s="4" t="s">
         <v>319</v>
@@ -10862,13 +10826,13 @@
         <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>14</v>
@@ -10886,10 +10850,10 @@
         <v>0</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>1388</v>
+        <v>1371</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>1389</v>
+        <v>1372</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>319</v>
@@ -10915,13 +10879,13 @@
         <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>14</v>
@@ -10939,15 +10903,15 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="L113" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="L113" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M113" s="8" t="s">
+      <c r="M113" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -10968,13 +10932,13 @@
         <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>14</v>
@@ -10991,16 +10955,16 @@
       <c r="I114" s="2">
         <v>0</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="L114" s="8" t="s">
+      <c r="J114" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="L114" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="M114" s="8" t="s">
+      <c r="M114" s="4" t="s">
         <v>320</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -11021,13 +10985,13 @@
         <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>14</v>
@@ -11045,15 +11009,15 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L115" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L115" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M115" s="8" t="s">
+      <c r="M115" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -11074,13 +11038,13 @@
         <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>14</v>
@@ -11098,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>319</v>
@@ -11127,13 +11091,13 @@
         <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>14</v>
@@ -11151,10 +11115,10 @@
         <v>0</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>1393</v>
+        <v>1376</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>319</v>
@@ -11180,13 +11144,13 @@
         <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>14</v>
@@ -11204,16 +11168,16 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>633</v>
+        <v>1492</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="M118" s="8" t="s">
-        <v>318</v>
+        <v>1027</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>17</v>
@@ -11233,13 +11197,13 @@
         <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>14</v>
@@ -11257,10 +11221,10 @@
         <v>0</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>1394</v>
+        <v>1377</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>1395</v>
+        <v>1378</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>319</v>
@@ -11286,13 +11250,13 @@
         <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>14</v>
@@ -11310,10 +11274,10 @@
         <v>0</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="L120" s="4" t="s">
         <v>319</v>
@@ -11339,13 +11303,13 @@
         <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>14</v>
@@ -11363,10 +11327,10 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="L121" s="4" t="s">
         <v>317</v>
@@ -11392,13 +11356,13 @@
         <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>14</v>
@@ -11416,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>317</v>
@@ -11445,13 +11409,13 @@
         <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>14</v>
@@ -11469,10 +11433,10 @@
         <v>0</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>1396</v>
+        <v>1379</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>319</v>
@@ -11498,13 +11462,13 @@
         <v>139</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>14</v>
@@ -11522,10 +11486,10 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>317</v>
@@ -11551,13 +11515,13 @@
         <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>14</v>
@@ -11575,10 +11539,10 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>317</v>
@@ -11604,13 +11568,13 @@
         <v>141</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>14</v>
@@ -11628,10 +11592,10 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>317</v>
@@ -11657,13 +11621,13 @@
         <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>14</v>
@@ -11681,10 +11645,10 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>317</v>
@@ -11710,13 +11674,13 @@
         <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>14</v>
@@ -11734,10 +11698,10 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>317</v>
@@ -11763,13 +11727,13 @@
         <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>14</v>
@@ -11787,10 +11751,10 @@
         <v>0</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>1397</v>
+        <v>1380</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>1398</v>
+        <v>1381</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>319</v>
@@ -11816,13 +11780,13 @@
         <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>14</v>
@@ -11840,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>317</v>
@@ -11869,13 +11833,13 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>14</v>
@@ -11893,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>1399</v>
+        <v>1382</v>
       </c>
       <c r="L131" s="4" t="s">
         <v>319</v>
@@ -11922,13 +11886,13 @@
         <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>14</v>
@@ -11946,10 +11910,10 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>317</v>
@@ -11975,13 +11939,13 @@
         <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>14</v>
@@ -11999,10 +11963,10 @@
         <v>0</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>1400</v>
+        <v>1383</v>
       </c>
       <c r="L133" s="4" t="s">
         <v>319</v>
@@ -12028,13 +11992,13 @@
         <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>14</v>
@@ -12052,10 +12016,10 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="L134" s="4" t="s">
         <v>317</v>
@@ -12081,13 +12045,13 @@
         <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>14</v>
@@ -12105,10 +12069,10 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="L135" s="4" t="s">
         <v>317</v>
@@ -12134,13 +12098,13 @@
         <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>14</v>
@@ -12158,10 +12122,10 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="L136" s="4" t="s">
         <v>317</v>
@@ -12187,13 +12151,13 @@
         <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>14</v>
@@ -12211,10 +12175,10 @@
         <v>0</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="L137" s="4" t="s">
         <v>319</v>
@@ -12240,13 +12204,13 @@
         <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>14</v>
@@ -12264,10 +12228,10 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="L138" s="4" t="s">
         <v>317</v>
@@ -12293,13 +12257,13 @@
         <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>14</v>
@@ -12317,10 +12281,10 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="L139" s="4" t="s">
         <v>317</v>
@@ -12346,13 +12310,13 @@
         <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1145</v>
+        <v>1128</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>14</v>
@@ -12370,10 +12334,10 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="L140" s="4" t="s">
         <v>317</v>
@@ -12399,13 +12363,13 @@
         <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>14</v>
@@ -12423,10 +12387,10 @@
         <v>0</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>1401</v>
+        <v>1384</v>
       </c>
       <c r="L141" s="4" t="s">
         <v>319</v>
@@ -12452,13 +12416,13 @@
         <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>14</v>
@@ -12476,10 +12440,10 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="L142" s="4" t="s">
         <v>317</v>
@@ -12505,13 +12469,13 @@
         <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>14</v>
@@ -12529,10 +12493,10 @@
         <v>0</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>319</v>
@@ -12558,13 +12522,13 @@
         <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>14</v>
@@ -12582,10 +12546,10 @@
         <v>0</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="L144" s="4" t="s">
         <v>319</v>
@@ -12611,13 +12575,13 @@
         <v>160</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>14</v>
@@ -12635,15 +12599,15 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L145" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L145" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M145" s="8" t="s">
+      <c r="M145" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -12664,13 +12628,13 @@
         <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>14</v>
@@ -12688,15 +12652,15 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L146" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L146" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="M146" s="8" t="s">
+      <c r="M146" s="4" t="s">
         <v>318</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -12717,13 +12681,13 @@
         <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>14</v>
@@ -12740,17 +12704,17 @@
       <c r="I147" s="2">
         <v>0</v>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>1402</v>
+      <c r="J147" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>1043</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>15</v>
@@ -12770,13 +12734,13 @@
         <v>163</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>14</v>
@@ -12794,10 +12758,10 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>317</v>
@@ -12823,13 +12787,13 @@
         <v>164</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>14</v>
@@ -12847,10 +12811,10 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="L149" s="4" t="s">
         <v>317</v>
@@ -12876,13 +12840,13 @@
         <v>165</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>14</v>
@@ -12900,10 +12864,10 @@
         <v>0</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>1403</v>
+        <v>1385</v>
       </c>
       <c r="L150" s="4" t="s">
         <v>319</v>
@@ -12929,13 +12893,13 @@
         <v>166</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>14</v>
@@ -12953,10 +12917,10 @@
         <v>0</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>1404</v>
+        <v>1386</v>
       </c>
       <c r="L151" s="4" t="s">
         <v>319</v>
@@ -12982,13 +12946,13 @@
         <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>14</v>
@@ -13006,10 +12970,10 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>317</v>
@@ -13018,7 +12982,7 @@
         <v>318</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O152">
         <v>4</v>
@@ -13035,13 +12999,13 @@
         <v>168</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>14</v>
@@ -13059,10 +13023,10 @@
         <v>0</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>1405</v>
+        <v>1387</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>1406</v>
+        <v>1388</v>
       </c>
       <c r="L153" s="4" t="s">
         <v>319</v>
@@ -13088,13 +13052,13 @@
         <v>169</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>14</v>
@@ -13112,10 +13076,10 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="L154" s="4" t="s">
         <v>317</v>
@@ -13141,13 +13105,13 @@
         <v>170</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>14</v>
@@ -13165,10 +13129,10 @@
         <v>0</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>1408</v>
+        <v>1390</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>319</v>
@@ -13194,13 +13158,13 @@
         <v>171</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>14</v>
@@ -13218,10 +13182,10 @@
         <v>0</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>1409</v>
+        <v>1391</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="L156" s="4" t="s">
         <v>319</v>
@@ -13247,13 +13211,13 @@
         <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>14</v>
@@ -13271,10 +13235,10 @@
         <v>0</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="L157" s="4" t="s">
         <v>319</v>
@@ -13300,13 +13264,13 @@
         <v>173</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>14</v>
@@ -13324,10 +13288,10 @@
         <v>0</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>319</v>
@@ -13353,13 +13317,13 @@
         <v>174</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>14</v>
@@ -13377,10 +13341,10 @@
         <v>0</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="L159" s="4" t="s">
         <v>317</v>
@@ -13406,13 +13370,13 @@
         <v>175</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>14</v>
@@ -13430,10 +13394,10 @@
         <v>0</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="L160" s="4" t="s">
         <v>317</v>
@@ -13459,13 +13423,13 @@
         <v>176</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>14</v>
@@ -13483,10 +13447,10 @@
         <v>0</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="L161" s="4" t="s">
         <v>317</v>
@@ -13512,13 +13476,13 @@
         <v>177</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>14</v>
@@ -13536,10 +13500,10 @@
         <v>0</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>1414</v>
+        <v>1396</v>
       </c>
       <c r="L162" s="4" t="s">
         <v>319</v>
@@ -13565,13 +13529,13 @@
         <v>178</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>14</v>
@@ -13589,10 +13553,10 @@
         <v>0</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>317</v>
@@ -13618,13 +13582,13 @@
         <v>179</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>14</v>
@@ -13642,10 +13606,10 @@
         <v>0</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1415</v>
+        <v>1397</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>319</v>
@@ -13671,13 +13635,13 @@
         <v>180</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>14</v>
@@ -13695,10 +13659,10 @@
         <v>0</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>1416</v>
+        <v>1398</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>1417</v>
+        <v>1399</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>319</v>
@@ -13724,13 +13688,13 @@
         <v>181</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>14</v>
@@ -13748,10 +13712,10 @@
         <v>0</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>1418</v>
+        <v>1400</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>319</v>
@@ -13777,13 +13741,13 @@
         <v>182</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>14</v>
@@ -13801,10 +13765,10 @@
         <v>0</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>317</v>
@@ -13830,13 +13794,13 @@
         <v>183</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>14</v>
@@ -13854,10 +13818,10 @@
         <v>0</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>317</v>
@@ -13883,13 +13847,13 @@
         <v>184</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>14</v>
@@ -13907,10 +13871,10 @@
         <v>0</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>1420</v>
+        <v>1402</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>1421</v>
+        <v>1403</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>319</v>
@@ -13936,13 +13900,13 @@
         <v>185</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>14</v>
@@ -13960,10 +13924,10 @@
         <v>0</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="L170" s="4" t="s">
         <v>317</v>
@@ -13989,13 +13953,13 @@
         <v>186</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>14</v>
@@ -14013,10 +13977,10 @@
         <v>0</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>1422</v>
+        <v>1404</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>319</v>
@@ -14042,13 +14006,13 @@
         <v>187</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>14</v>
@@ -14066,10 +14030,10 @@
         <v>0</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>317</v>
@@ -14095,13 +14059,13 @@
         <v>188</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>14</v>
@@ -14119,10 +14083,10 @@
         <v>0</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="L173" s="4" t="s">
         <v>317</v>
@@ -14148,13 +14112,13 @@
         <v>189</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>14</v>
@@ -14172,10 +14136,10 @@
         <v>0</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>317</v>
@@ -14201,13 +14165,13 @@
         <v>190</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>14</v>
@@ -14225,10 +14189,10 @@
         <v>0</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>1423</v>
+        <v>1405</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>1424</v>
+        <v>1406</v>
       </c>
       <c r="L175" s="4" t="s">
         <v>319</v>
@@ -14254,13 +14218,13 @@
         <v>191</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>14</v>
@@ -14278,10 +14242,10 @@
         <v>0</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>1425</v>
+        <v>1407</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>1426</v>
+        <v>1408</v>
       </c>
       <c r="L176" s="4" t="s">
         <v>319</v>
@@ -14307,13 +14271,13 @@
         <v>192</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>14</v>
@@ -14331,10 +14295,10 @@
         <v>0</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1427</v>
+        <v>1409</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="L177" s="4" t="s">
         <v>319</v>
@@ -14360,13 +14324,13 @@
         <v>193</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>14</v>
@@ -14384,10 +14348,10 @@
         <v>0</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>1428</v>
+        <v>1410</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>1429</v>
+        <v>1411</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>319</v>
@@ -14413,13 +14377,13 @@
         <v>194</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>14</v>
@@ -14437,10 +14401,10 @@
         <v>0</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>1430</v>
+        <v>1412</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>1431</v>
+        <v>1413</v>
       </c>
       <c r="L179" s="4" t="s">
         <v>319</v>
@@ -14466,13 +14430,13 @@
         <v>195</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>14</v>
@@ -14490,10 +14454,10 @@
         <v>0</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>1432</v>
+        <v>1414</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>319</v>
@@ -14519,13 +14483,13 @@
         <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>14</v>
@@ -14543,10 +14507,10 @@
         <v>0</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="L181" s="4" t="s">
         <v>317</v>
@@ -14572,13 +14536,13 @@
         <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>14</v>
@@ -14596,10 +14560,10 @@
         <v>0</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>317</v>
@@ -14625,13 +14589,13 @@
         <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>14</v>
@@ -14649,10 +14613,10 @@
         <v>0</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>317</v>
@@ -14678,13 +14642,13 @@
         <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>14</v>
@@ -14702,10 +14666,10 @@
         <v>0</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>317</v>
@@ -14731,13 +14695,13 @@
         <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>14</v>
@@ -14755,10 +14719,10 @@
         <v>0</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="L185" s="4" t="s">
         <v>317</v>
@@ -14784,13 +14748,13 @@
         <v>201</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>14</v>
@@ -14808,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="L186" s="4" t="s">
         <v>317</v>
@@ -14837,13 +14801,13 @@
         <v>202</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>14</v>
@@ -14861,10 +14825,10 @@
         <v>0</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="L187" s="4" t="s">
         <v>317</v>
@@ -14890,13 +14854,13 @@
         <v>203</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>14</v>
@@ -14914,10 +14878,10 @@
         <v>0</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="L188" s="4" t="s">
         <v>317</v>
@@ -14943,13 +14907,13 @@
         <v>204</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1188</v>
+        <v>1171</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>21</v>
@@ -14970,7 +14934,7 @@
         <v>204</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>317</v>
@@ -14996,13 +14960,13 @@
         <v>205</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>21</v>
@@ -15023,7 +14987,7 @@
         <v>205</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>317</v>
@@ -15049,13 +15013,13 @@
         <v>206</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>21</v>
@@ -15073,10 +15037,10 @@
         <v>0</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>1433</v>
+        <v>1415</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="L191" s="4" t="s">
         <v>319</v>
@@ -15102,13 +15066,13 @@
         <v>207</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>21</v>
@@ -15126,10 +15090,10 @@
         <v>0</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>319</v>
@@ -15155,13 +15119,13 @@
         <v>208</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1192</v>
+        <v>1175</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>21</v>
@@ -15182,7 +15146,7 @@
         <v>208</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>317</v>
@@ -15208,13 +15172,13 @@
         <v>209</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1286</v>
+        <v>1269</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>21</v>
@@ -15232,10 +15196,10 @@
         <v>0</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>1437</v>
+        <v>1419</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>319</v>
@@ -15261,13 +15225,13 @@
         <v>210</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>21</v>
@@ -15285,10 +15249,10 @@
         <v>0</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>1438</v>
+        <v>1420</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>1439</v>
+        <v>1421</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>319</v>
@@ -15314,13 +15278,13 @@
         <v>211</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>21</v>
@@ -15341,7 +15305,7 @@
         <v>211</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>317</v>
@@ -15367,13 +15331,13 @@
         <v>212</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>21</v>
@@ -15391,10 +15355,10 @@
         <v>0</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>1440</v>
+        <v>1422</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>319</v>
@@ -15420,13 +15384,13 @@
         <v>213</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>21</v>
@@ -15444,10 +15408,10 @@
         <v>0</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>1441</v>
+        <v>1423</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>1442</v>
+        <v>1424</v>
       </c>
       <c r="L198" s="4" t="s">
         <v>319</v>
@@ -15473,13 +15437,13 @@
         <v>214</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>21</v>
@@ -15500,10 +15464,10 @@
         <v>214</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>744</v>
+        <v>317</v>
       </c>
       <c r="M199" s="4" t="s">
         <v>318</v>
@@ -15526,13 +15490,13 @@
         <v>215</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>21</v>
@@ -15553,10 +15517,10 @@
         <v>215</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>745</v>
+        <v>317</v>
       </c>
       <c r="M200" s="4" t="s">
         <v>318</v>
@@ -15579,13 +15543,13 @@
         <v>216</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>21</v>
@@ -15606,10 +15570,10 @@
         <v>216</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>746</v>
+        <v>317</v>
       </c>
       <c r="M201" s="4" t="s">
         <v>318</v>
@@ -15632,13 +15596,13 @@
         <v>217</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>21</v>
@@ -15659,10 +15623,10 @@
         <v>217</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>747</v>
+        <v>317</v>
       </c>
       <c r="M202" s="4" t="s">
         <v>318</v>
@@ -15685,13 +15649,13 @@
         <v>218</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>21</v>
@@ -15709,10 +15673,10 @@
         <v>0</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>1443</v>
+        <v>1425</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>319</v>
@@ -15738,13 +15702,13 @@
         <v>219</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>21</v>
@@ -15762,10 +15726,10 @@
         <v>0</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>1444</v>
+        <v>1426</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>1445</v>
+        <v>1427</v>
       </c>
       <c r="L204" s="4" t="s">
         <v>319</v>
@@ -15791,13 +15755,13 @@
         <v>220</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>21</v>
@@ -15818,7 +15782,7 @@
         <v>220</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="L205" s="4" t="s">
         <v>317</v>
@@ -15844,13 +15808,13 @@
         <v>221</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>21</v>
@@ -15871,7 +15835,7 @@
         <v>221</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="L206" s="4" t="s">
         <v>317</v>
@@ -15897,13 +15861,13 @@
         <v>222</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>21</v>
@@ -15921,10 +15885,10 @@
         <v>0</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>1446</v>
+        <v>1428</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>1447</v>
+        <v>1429</v>
       </c>
       <c r="L207" s="4" t="s">
         <v>319</v>
@@ -15950,13 +15914,13 @@
         <v>223</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>21</v>
@@ -15974,10 +15938,10 @@
         <v>0</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L208" s="4" t="s">
         <v>319</v>
@@ -16003,13 +15967,13 @@
         <v>224</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>21</v>
@@ -16030,7 +15994,7 @@
         <v>224</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="L209" s="4" t="s">
         <v>317</v>
@@ -16056,13 +16020,13 @@
         <v>225</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>21</v>
@@ -16080,10 +16044,10 @@
         <v>0</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>1448</v>
+        <v>1430</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>1449</v>
+        <v>1431</v>
       </c>
       <c r="L210" s="4" t="s">
         <v>319</v>
@@ -16109,13 +16073,13 @@
         <v>226</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>21</v>
@@ -16136,7 +16100,7 @@
         <v>226</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="L211" s="4" t="s">
         <v>317</v>
@@ -16162,13 +16126,13 @@
         <v>227</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>21</v>
@@ -16189,7 +16153,7 @@
         <v>227</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="L212" s="4" t="s">
         <v>317</v>
@@ -16215,13 +16179,13 @@
         <v>228</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>21</v>
@@ -16239,10 +16203,10 @@
         <v>0</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>1450</v>
+        <v>1432</v>
       </c>
       <c r="L213" s="4" t="s">
         <v>319</v>
@@ -16268,13 +16232,13 @@
         <v>229</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>21</v>
@@ -16295,7 +16259,7 @@
         <v>229</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="L214" s="4" t="s">
         <v>317</v>
@@ -16321,13 +16285,13 @@
         <v>230</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>21</v>
@@ -16345,10 +16309,10 @@
         <v>0</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>1451</v>
+        <v>1433</v>
       </c>
       <c r="L215" s="4" t="s">
         <v>319</v>
@@ -16374,13 +16338,13 @@
         <v>231</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>21</v>
@@ -16398,10 +16362,10 @@
         <v>0</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>1406</v>
+        <v>1388</v>
       </c>
       <c r="L216" s="4" t="s">
         <v>319</v>
@@ -16427,13 +16391,13 @@
         <v>232</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>21</v>
@@ -16454,7 +16418,7 @@
         <v>232</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="L217" s="4" t="s">
         <v>317</v>
@@ -16480,13 +16444,13 @@
         <v>233</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>21</v>
@@ -16504,10 +16468,10 @@
         <v>0</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>1452</v>
+        <v>1434</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>1453</v>
+        <v>1435</v>
       </c>
       <c r="L218" s="4" t="s">
         <v>319</v>
@@ -16533,13 +16497,13 @@
         <v>234</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>21</v>
@@ -16560,7 +16524,7 @@
         <v>234</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="L219" s="4" t="s">
         <v>317</v>
@@ -16586,13 +16550,13 @@
         <v>235</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>21</v>
@@ -16610,10 +16574,10 @@
         <v>0</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>1454</v>
+        <v>1436</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>1455</v>
+        <v>1437</v>
       </c>
       <c r="L220" s="4" t="s">
         <v>319</v>
@@ -16639,13 +16603,13 @@
         <v>236</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>21</v>
@@ -16663,10 +16627,10 @@
         <v>0</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>1456</v>
+        <v>1438</v>
       </c>
       <c r="L221" s="4" t="s">
         <v>319</v>
@@ -16692,13 +16656,13 @@
         <v>237</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>21</v>
@@ -16719,7 +16683,7 @@
         <v>237</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="L222" s="4" t="s">
         <v>317</v>
@@ -16745,13 +16709,13 @@
         <v>238</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>21</v>
@@ -16772,7 +16736,7 @@
         <v>238</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L223" s="4" t="s">
         <v>317</v>
@@ -16798,13 +16762,13 @@
         <v>239</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>21</v>
@@ -16825,7 +16789,7 @@
         <v>239</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="L224" s="4" t="s">
         <v>317</v>
@@ -16851,13 +16815,13 @@
         <v>240</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>21</v>
@@ -16875,10 +16839,10 @@
         <v>0</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="L225" s="4" t="s">
         <v>319</v>
@@ -16904,13 +16868,13 @@
         <v>241</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>21</v>
@@ -16931,7 +16895,7 @@
         <v>241</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="L226" s="4" t="s">
         <v>317</v>
@@ -16957,13 +16921,13 @@
         <v>242</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>21</v>
@@ -16981,10 +16945,10 @@
         <v>0</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>1457</v>
+        <v>1439</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>1458</v>
+        <v>1440</v>
       </c>
       <c r="L227" s="4" t="s">
         <v>319</v>
@@ -17010,13 +16974,13 @@
         <v>243</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>21</v>
@@ -17034,10 +16998,10 @@
         <v>0</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>1459</v>
+        <v>1441</v>
       </c>
       <c r="L228" s="4" t="s">
         <v>319</v>
@@ -17063,13 +17027,13 @@
         <v>244</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>21</v>
@@ -17090,7 +17054,7 @@
         <v>244</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="L229" s="4" t="s">
         <v>317</v>
@@ -17116,13 +17080,13 @@
         <v>245</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>21</v>
@@ -17140,10 +17104,10 @@
         <v>0</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>1460</v>
+        <v>1442</v>
       </c>
       <c r="L230" s="4" t="s">
         <v>319</v>
@@ -17169,13 +17133,13 @@
         <v>246</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>21</v>
@@ -17196,7 +17160,7 @@
         <v>246</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L231" s="4" t="s">
         <v>317</v>
@@ -17222,13 +17186,13 @@
         <v>247</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>21</v>
@@ -17246,10 +17210,10 @@
         <v>0</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>1461</v>
+        <v>1443</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="L232" s="4" t="s">
         <v>319</v>
@@ -17275,13 +17239,13 @@
         <v>248</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>21</v>
@@ -17302,7 +17266,7 @@
         <v>248</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="L233" s="4" t="s">
         <v>317</v>
@@ -17328,13 +17292,13 @@
         <v>249</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>21</v>
@@ -17352,10 +17316,10 @@
         <v>0</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>1463</v>
+        <v>1445</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>1464</v>
+        <v>1446</v>
       </c>
       <c r="L234" s="4" t="s">
         <v>319</v>
@@ -17381,13 +17345,13 @@
         <v>250</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>21</v>
@@ -17408,7 +17372,7 @@
         <v>250</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="L235" s="4" t="s">
         <v>317</v>
@@ -17434,13 +17398,13 @@
         <v>251</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>21</v>
@@ -17461,7 +17425,7 @@
         <v>251</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="L236" s="4" t="s">
         <v>317</v>
@@ -17487,13 +17451,13 @@
         <v>252</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>21</v>
@@ -17514,7 +17478,7 @@
         <v>252</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L237" s="4" t="s">
         <v>317</v>
@@ -17540,13 +17504,13 @@
         <v>253</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>21</v>
@@ -17564,16 +17528,16 @@
         <v>0</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>253</v>
+        <v>1493</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>1319</v>
+        <v>1494</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>17</v>
@@ -17593,13 +17557,13 @@
         <v>254</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>21</v>
@@ -17617,10 +17581,10 @@
         <v>0</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="K239" s="4" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="L239" s="4" t="s">
         <v>319</v>
@@ -17646,13 +17610,13 @@
         <v>255</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>21</v>
@@ -17670,16 +17634,16 @@
         <v>0</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>255</v>
+        <v>1495</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>1067</v>
+        <v>1294</v>
       </c>
       <c r="L240" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>17</v>
@@ -17699,13 +17663,13 @@
         <v>256</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>21</v>
@@ -17726,7 +17690,7 @@
         <v>256</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="L241" s="4" t="s">
         <v>317</v>
@@ -17752,13 +17716,13 @@
         <v>257</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>21</v>
@@ -17779,7 +17743,7 @@
         <v>257</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="L242" s="4" t="s">
         <v>317</v>
@@ -17805,13 +17769,13 @@
         <v>258</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>21</v>
@@ -17829,10 +17793,10 @@
         <v>0</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>1466</v>
+        <v>1448</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>1467</v>
+        <v>1449</v>
       </c>
       <c r="L243" s="4" t="s">
         <v>319</v>
@@ -17858,13 +17822,13 @@
         <v>259</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>21</v>
@@ -17882,10 +17846,10 @@
         <v>0</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="K244" s="4" t="s">
-        <v>1468</v>
+        <v>1450</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>319</v>
@@ -17911,13 +17875,13 @@
         <v>260</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>21</v>
@@ -17938,7 +17902,7 @@
         <v>260</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="L245" s="4" t="s">
         <v>317</v>
@@ -17964,13 +17928,13 @@
         <v>261</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>21</v>
@@ -17988,10 +17952,10 @@
         <v>0</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>1469</v>
+        <v>1451</v>
       </c>
       <c r="K246" s="4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="L246" s="4" t="s">
         <v>319</v>
@@ -18017,13 +17981,13 @@
         <v>262</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>21</v>
@@ -18044,7 +18008,7 @@
         <v>262</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="L247" s="4" t="s">
         <v>317</v>
@@ -18070,13 +18034,13 @@
         <v>263</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>21</v>
@@ -18094,10 +18058,10 @@
         <v>0</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>1471</v>
+        <v>1453</v>
       </c>
       <c r="L248" s="4" t="s">
         <v>319</v>
@@ -18123,13 +18087,13 @@
         <v>264</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>21</v>
@@ -18150,7 +18114,7 @@
         <v>264</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="L249" s="4" t="s">
         <v>317</v>
@@ -18176,13 +18140,13 @@
         <v>265</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1238</v>
+        <v>1221</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>21</v>
@@ -18203,7 +18167,7 @@
         <v>265</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="L250" s="4" t="s">
         <v>317</v>
@@ -18229,13 +18193,13 @@
         <v>266</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>21</v>
@@ -18253,10 +18217,10 @@
         <v>0</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="K251" s="4" t="s">
-        <v>1472</v>
+        <v>1454</v>
       </c>
       <c r="L251" s="4" t="s">
         <v>319</v>
@@ -18282,13 +18246,13 @@
         <v>267</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>21</v>
@@ -18306,10 +18270,10 @@
         <v>0</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>1473</v>
+        <v>1455</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>1474</v>
+        <v>1456</v>
       </c>
       <c r="L252" s="4" t="s">
         <v>319</v>
@@ -18335,13 +18299,13 @@
         <v>268</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>21</v>
@@ -18359,10 +18323,10 @@
         <v>0</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="K253" s="4" t="s">
-        <v>1475</v>
+        <v>1457</v>
       </c>
       <c r="L253" s="4" t="s">
         <v>319</v>
@@ -18388,13 +18352,13 @@
         <v>269</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>21</v>
@@ -18415,7 +18379,7 @@
         <v>269</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="L254" s="4" t="s">
         <v>317</v>
@@ -18441,13 +18405,13 @@
         <v>270</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>21</v>
@@ -18468,7 +18432,7 @@
         <v>270</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="L255" s="4" t="s">
         <v>317</v>
@@ -18494,13 +18458,13 @@
         <v>271</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>21</v>
@@ -18518,10 +18482,10 @@
         <v>0</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="K256" s="4" t="s">
-        <v>1476</v>
+        <v>1458</v>
       </c>
       <c r="L256" s="4" t="s">
         <v>319</v>
@@ -18547,13 +18511,13 @@
         <v>272</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>21</v>
@@ -18574,7 +18538,7 @@
         <v>272</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="L257" s="4" t="s">
         <v>317</v>
@@ -18600,13 +18564,13 @@
         <v>273</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>21</v>
@@ -18627,7 +18591,7 @@
         <v>273</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="L258" s="4" t="s">
         <v>317</v>
@@ -18653,13 +18617,13 @@
         <v>274</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>21</v>
@@ -18677,10 +18641,10 @@
         <v>0</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>1477</v>
+        <v>1459</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>1478</v>
+        <v>1460</v>
       </c>
       <c r="L259" s="4" t="s">
         <v>319</v>
@@ -18706,13 +18670,13 @@
         <v>275</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>21</v>
@@ -18730,10 +18694,10 @@
         <v>0</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>1479</v>
+        <v>1461</v>
       </c>
       <c r="L260" s="4" t="s">
         <v>319</v>
@@ -18759,13 +18723,13 @@
         <v>276</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>21</v>
@@ -18786,7 +18750,7 @@
         <v>276</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="L261" s="4" t="s">
         <v>317</v>
@@ -18812,13 +18776,13 @@
         <v>277</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>21</v>
@@ -18839,7 +18803,7 @@
         <v>277</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="L262" s="4" t="s">
         <v>317</v>
@@ -18865,13 +18829,13 @@
         <v>278</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>21</v>
@@ -18889,10 +18853,10 @@
         <v>0</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="L263" s="4" t="s">
         <v>319</v>
@@ -18918,13 +18882,13 @@
         <v>279</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>21</v>
@@ -18945,7 +18909,7 @@
         <v>279</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="L264" s="4" t="s">
         <v>317</v>
@@ -18971,13 +18935,13 @@
         <v>280</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>21</v>
@@ -18998,7 +18962,7 @@
         <v>280</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="L265" s="4" t="s">
         <v>317</v>
@@ -19024,13 +18988,13 @@
         <v>281</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>21</v>
@@ -19048,10 +19012,10 @@
         <v>0</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>1480</v>
+        <v>1462</v>
       </c>
       <c r="L266" s="4" t="s">
         <v>319</v>
@@ -19077,13 +19041,13 @@
         <v>282</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>21</v>
@@ -19101,10 +19065,10 @@
         <v>0</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>1481</v>
+        <v>1463</v>
       </c>
       <c r="L267" s="4" t="s">
         <v>319</v>
@@ -19130,13 +19094,13 @@
         <v>283</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>21</v>
@@ -19157,7 +19121,7 @@
         <v>283</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="L268" s="4" t="s">
         <v>317</v>
@@ -19183,13 +19147,13 @@
         <v>284</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>21</v>
@@ -19210,7 +19174,7 @@
         <v>284</v>
       </c>
       <c r="K269" s="2" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="L269" s="4" t="s">
         <v>317</v>
@@ -19236,13 +19200,13 @@
         <v>285</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>21</v>
@@ -19260,10 +19224,10 @@
         <v>0</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>1482</v>
+        <v>1464</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>1483</v>
+        <v>1465</v>
       </c>
       <c r="L270" s="4" t="s">
         <v>319</v>
@@ -19289,13 +19253,13 @@
         <v>286</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>21</v>
@@ -19313,10 +19277,10 @@
         <v>0</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>1484</v>
+        <v>1466</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="L271" s="4" t="s">
         <v>319</v>
@@ -19342,13 +19306,13 @@
         <v>287</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>21</v>
@@ -19366,10 +19330,10 @@
         <v>0</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="K272" s="4" t="s">
-        <v>1485</v>
+        <v>1467</v>
       </c>
       <c r="L272" s="4" t="s">
         <v>319</v>
@@ -19395,13 +19359,13 @@
         <v>288</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>21</v>
@@ -19419,10 +19383,10 @@
         <v>0</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>1486</v>
+        <v>1468</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="L273" s="4" t="s">
         <v>319</v>
@@ -19448,13 +19412,13 @@
         <v>289</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>21</v>
@@ -19472,10 +19436,10 @@
         <v>0</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="L274" s="4" t="s">
         <v>319</v>
@@ -19501,13 +19465,13 @@
         <v>290</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>21</v>
@@ -19528,7 +19492,7 @@
         <v>290</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
       <c r="L275" s="4" t="s">
         <v>317</v>
@@ -19554,13 +19518,13 @@
         <v>291</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>21</v>
@@ -19581,7 +19545,7 @@
         <v>291</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
       <c r="L276" s="4" t="s">
         <v>317</v>
@@ -19607,13 +19571,13 @@
         <v>292</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>21</v>
@@ -19631,10 +19595,10 @@
         <v>0</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="K277" s="4" t="s">
-        <v>1487</v>
+        <v>1469</v>
       </c>
       <c r="L277" s="4" t="s">
         <v>319</v>
@@ -19660,13 +19624,13 @@
         <v>293</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>21</v>
@@ -19687,7 +19651,7 @@
         <v>293</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="L278" s="4" t="s">
         <v>317</v>
@@ -19713,13 +19677,13 @@
         <v>294</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>21</v>
@@ -19737,10 +19701,10 @@
         <v>0</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>1488</v>
+        <v>1470</v>
       </c>
       <c r="L279" s="4" t="s">
         <v>319</v>
@@ -19766,13 +19730,13 @@
         <v>295</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>21</v>
@@ -19790,10 +19754,10 @@
         <v>0</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>1489</v>
+        <v>1471</v>
       </c>
       <c r="K280" s="4" t="s">
-        <v>1490</v>
+        <v>1472</v>
       </c>
       <c r="L280" s="4" t="s">
         <v>319</v>
@@ -19819,13 +19783,13 @@
         <v>296</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>21</v>
@@ -19846,7 +19810,7 @@
         <v>296</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="L281" s="4" t="s">
         <v>317</v>
@@ -19872,13 +19836,13 @@
         <v>297</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>21</v>
@@ -19899,7 +19863,7 @@
         <v>297</v>
       </c>
       <c r="K282" s="2" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="L282" s="4" t="s">
         <v>317</v>
@@ -19925,13 +19889,13 @@
         <v>298</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>21</v>
@@ -19949,10 +19913,10 @@
         <v>0</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>1491</v>
+        <v>1473</v>
       </c>
       <c r="K283" s="4" t="s">
-        <v>1492</v>
+        <v>1474</v>
       </c>
       <c r="L283" s="4" t="s">
         <v>319</v>
@@ -19978,13 +19942,13 @@
         <v>299</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>21</v>
@@ -20005,7 +19969,7 @@
         <v>299</v>
       </c>
       <c r="K284" s="2" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="L284" s="4" t="s">
         <v>317</v>
@@ -20031,13 +19995,13 @@
         <v>300</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>21</v>
@@ -20058,7 +20022,7 @@
         <v>300</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="L285" s="4" t="s">
         <v>317</v>
@@ -20084,13 +20048,13 @@
         <v>301</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>21</v>
@@ -20111,7 +20075,7 @@
         <v>301</v>
       </c>
       <c r="K286" s="2" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="L286" s="4" t="s">
         <v>317</v>
@@ -20137,13 +20101,13 @@
         <v>302</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>21</v>
@@ -20164,7 +20128,7 @@
         <v>302</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="L287" s="4" t="s">
         <v>317</v>
@@ -20190,13 +20154,13 @@
         <v>303</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>21</v>
@@ -20217,7 +20181,7 @@
         <v>303</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="L288" s="4" t="s">
         <v>317</v>
@@ -20243,13 +20207,13 @@
         <v>304</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>21</v>
@@ -20267,10 +20231,10 @@
         <v>0</v>
       </c>
       <c r="J289" s="4" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="K289" s="4" t="s">
-        <v>1493</v>
+        <v>1475</v>
       </c>
       <c r="L289" s="4" t="s">
         <v>319</v>
@@ -20296,13 +20260,13 @@
         <v>305</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>21</v>
@@ -20320,10 +20284,10 @@
         <v>0</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="K290" s="4" t="s">
-        <v>1494</v>
+        <v>1476</v>
       </c>
       <c r="L290" s="4" t="s">
         <v>319</v>
@@ -20349,13 +20313,13 @@
         <v>306</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>21</v>
@@ -20373,10 +20337,10 @@
         <v>0</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>1495</v>
+        <v>1477</v>
       </c>
       <c r="K291" s="4" t="s">
-        <v>1496</v>
+        <v>1478</v>
       </c>
       <c r="L291" s="4" t="s">
         <v>319</v>
@@ -20402,13 +20366,13 @@
         <v>307</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>21</v>
@@ -20429,7 +20393,7 @@
         <v>307</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="L292" s="4" t="s">
         <v>317</v>
@@ -20455,13 +20419,13 @@
         <v>308</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>21</v>
@@ -20482,7 +20446,7 @@
         <v>308</v>
       </c>
       <c r="K293" s="2" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="L293" s="4" t="s">
         <v>317</v>
@@ -20508,13 +20472,13 @@
         <v>309</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1276</v>
+        <v>1259</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>21</v>
@@ -20532,10 +20496,10 @@
         <v>0</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="K294" s="4" t="s">
-        <v>1497</v>
+        <v>1479</v>
       </c>
       <c r="L294" s="4" t="s">
         <v>319</v>
@@ -20561,13 +20525,13 @@
         <v>310</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1359</v>
+        <v>1342</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>21</v>
@@ -20585,10 +20549,10 @@
         <v>0</v>
       </c>
       <c r="J295" s="4" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="K295" s="4" t="s">
-        <v>1498</v>
+        <v>1480</v>
       </c>
       <c r="L295" s="4" t="s">
         <v>319</v>
@@ -20614,13 +20578,13 @@
         <v>311</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>21</v>
@@ -20641,7 +20605,7 @@
         <v>311</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
       <c r="L296" s="4" t="s">
         <v>317</v>
@@ -20667,13 +20631,13 @@
         <v>312</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>1278</v>
+        <v>1261</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>21</v>
@@ -20691,10 +20655,10 @@
         <v>0</v>
       </c>
       <c r="J297" s="4" t="s">
-        <v>1499</v>
+        <v>1481</v>
       </c>
       <c r="K297" s="4" t="s">
-        <v>1500</v>
+        <v>1482</v>
       </c>
       <c r="L297" s="4" t="s">
         <v>319</v>
@@ -20720,13 +20684,13 @@
         <v>313</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>21</v>
@@ -20744,10 +20708,10 @@
         <v>0</v>
       </c>
       <c r="J298" s="4" t="s">
-        <v>1501</v>
+        <v>1483</v>
       </c>
       <c r="K298" s="4" t="s">
-        <v>1502</v>
+        <v>1484</v>
       </c>
       <c r="L298" s="4" t="s">
         <v>319</v>
@@ -20773,13 +20737,13 @@
         <v>314</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>21</v>
@@ -20797,10 +20761,10 @@
         <v>0</v>
       </c>
       <c r="J299" s="4" t="s">
-        <v>1503</v>
+        <v>1485</v>
       </c>
       <c r="K299" s="4" t="s">
-        <v>1504</v>
+        <v>1486</v>
       </c>
       <c r="L299" s="4" t="s">
         <v>319</v>
@@ -20826,13 +20790,13 @@
         <v>315</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1364</v>
+        <v>1347</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>21</v>
@@ -20850,10 +20814,10 @@
         <v>0</v>
       </c>
       <c r="J300" s="4" t="s">
-        <v>1505</v>
+        <v>1487</v>
       </c>
       <c r="K300" s="4" t="s">
-        <v>1506</v>
+        <v>1488</v>
       </c>
       <c r="L300" s="4" t="s">
         <v>319</v>
@@ -20879,13 +20843,13 @@
         <v>316</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>21</v>
@@ -20906,7 +20870,7 @@
         <v>316</v>
       </c>
       <c r="K301" s="2" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
       <c r="L301" s="4" t="s">
         <v>317</v>
